--- a/Jogos_do_Dia/2023-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="L2" t="n">
-        <v>3.17</v>
+        <v>3.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -787,16 +787,16 @@
         <v>1.3</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,128 +808,128 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.77</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1.03</v>
       </c>
       <c r="P3" t="n">
-        <v>8.199999999999999</v>
+        <v>10.65</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AH3" t="n">
         <v>1.32</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AI3" t="n">
         <v>2.98</v>
       </c>
-      <c r="S3" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -951,130 +951,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.19</v>
+        <v>1.89</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>10.65</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.29</v>
       </c>
-      <c r="R4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.39</v>
-      </c>
       <c r="AC4" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.81</v>
+        <v>2.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,134 +1086,134 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="n">
-        <v>4.12</v>
+        <v>2.98</v>
       </c>
       <c r="S5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.7</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.03</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="AJ5" t="n">
         <v>1.67</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AO6" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>9.199999999999999</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.33</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="X7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE7" t="n">
         <v>1.75</v>
       </c>
-      <c r="T7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>5.65</v>
-      </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.21</v>
+        <v>2.53</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.37</v>
+        <v>3.4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AL7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN7" t="n">
         <v>2.55</v>
       </c>
-      <c r="AM7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="L8" t="n">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="M8" t="n">
         <v>1.44</v>
@@ -1621,10 +1621,10 @@
         <v>1.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -1727,13 +1727,13 @@
         <v>2.89</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -1866,43 +1866,43 @@
         <v>2.87</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11">
@@ -2005,43 +2005,43 @@
         <v>2.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.45</v>
@@ -2108,10 +2108,10 @@
         <v>2.95</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>1.85</v>
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,122 +2198,122 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SD Huesca</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
-        <v>2.08</v>
+        <v>3.38</v>
       </c>
       <c r="K13" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>2.11</v>
       </c>
       <c r="M13" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="N13" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="P13" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="R13" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="S13" t="n">
-        <v>2.75</v>
+        <v>1.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.13</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.7</v>
+        <v>2.11</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.24</v>
+        <v>3.03</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.69</v>
+        <v>2.52</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,134 +2337,134 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.66</v>
+        <v>9.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>5.15</v>
       </c>
       <c r="L14" t="n">
-        <v>2.39</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AH14" t="n">
         <v>1.33</v>
       </c>
-      <c r="N14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AI14" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2476,134 +2476,134 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.84</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="P15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
         <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.93</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AC15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>1.3</v>
       </c>
-      <c r="AD15" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AK15" t="n">
-        <v>2</v>
+        <v>3.08</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.75</v>
+        <v>1.97</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.75</v>
+        <v>2.48</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2615,134 +2615,134 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.18</v>
+        <v>4.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="P16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF16" t="n">
         <v>8</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="AG16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK16" t="n">
         <v>2</v>
       </c>
-      <c r="W16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,134 +2754,134 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>SD Huesca</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF17" t="n">
         <v>8</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG17" t="n">
-        <v>1.26</v>
+        <v>2.63</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="AJ17" t="n">
         <v>1.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,134 +2893,134 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Villarreal II</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K18" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>2.53</v>
+        <v>2.74</v>
       </c>
       <c r="M18" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P18" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="R18" t="n">
-        <v>2.63</v>
+        <v>4.13</v>
       </c>
       <c r="S18" t="n">
-        <v>2.43</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.8</v>
+        <v>2.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AF18" t="n">
         <v>7.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,59 +3032,59 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Villarreal II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.32</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>4.95</v>
+        <v>2.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="P19" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="R19" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="S19" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="U19" t="n">
         <v>1.95</v>
@@ -3093,67 +3093,67 @@
         <v>1.75</v>
       </c>
       <c r="W19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>1.18</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3193,13 +3193,13 @@
         <v>1.94</v>
       </c>
       <c r="J20" t="n">
-        <v>7.85</v>
+        <v>7.28</v>
       </c>
       <c r="K20" t="n">
-        <v>4.33</v>
+        <v>4.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
         <v>1.36</v>
@@ -3220,10 +3220,10 @@
         <v>3.7</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -3250,10 +3250,10 @@
         <v>1.18</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AE20" t="n">
         <v>4.11</v>
@@ -3298,7 +3298,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,134 +3310,134 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.97</v>
+        <v>2.25</v>
       </c>
       <c r="I21" t="n">
-        <v>6.72</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.3</v>
       </c>
-      <c r="K21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="R21" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI21" t="n">
         <v>4.25</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P21" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="AJ21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>1.36</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,128 +3449,128 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="H22" t="n">
-        <v>2.25</v>
+        <v>2.97</v>
       </c>
       <c r="I22" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R22" t="n">
         <v>6.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3.08</v>
-      </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="V22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL22" t="n">
         <v>1.67</v>
       </c>
-      <c r="W22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AM22" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="23">
@@ -3610,13 +3610,13 @@
         <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="M23" t="n">
         <v>1.36</v>
@@ -3637,10 +3637,10 @@
         <v>3.7</v>
       </c>
       <c r="S23" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
         <v>1.7</v>
@@ -3715,7 +3715,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,128 +3727,128 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>SD Amorebieta</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>AD Alcorcón</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="K24" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="L24" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="N24" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN24" t="n">
         <v>2.55</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3</v>
-      </c>
       <c r="AO24" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.2</v>
+        <v>3.56</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="25">
@@ -3870,130 +3870,130 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>RCD Mallorca</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.1</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P25" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP25" t="n">
         <v>4.2</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,128 +4005,128 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SD Amorebieta</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AD Alcorcón</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.14</v>
+        <v>4.45</v>
       </c>
       <c r="K26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE26" t="n">
         <v>3.05</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.64</v>
       </c>
       <c r="AF26" t="n">
         <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.77</v>
+        <v>1.52</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="27">
@@ -4166,13 +4166,13 @@
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="K27" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="L27" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.5</v>
@@ -4193,10 +4193,10 @@
         <v>2.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="U27" t="n">
         <v>2.1</v>
@@ -4238,10 +4238,10 @@
         <v>2.9</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ27" t="n">
         <v>1.65</v>
@@ -4250,22 +4250,22 @@
         <v>2.13</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -739,10 +739,10 @@
         <v>1.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AB2" t="n">
         <v>1.05</v>
@@ -830,13 +830,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="K3" t="n">
         <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M3" t="n">
         <v>1.44</v>
@@ -857,10 +857,10 @@
         <v>3.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>1.75</v>
@@ -878,10 +878,10 @@
         <v>1.73</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AB3" t="n">
         <v>1.39</v>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M4" t="n">
         <v>1.38</v>
@@ -999,7 +999,7 @@
         <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.65</v>
@@ -1017,10 +1017,10 @@
         <v>1.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AB4" t="n">
         <v>1.3</v>
@@ -1108,13 +1108,13 @@
         <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.43</v>
@@ -1138,7 +1138,7 @@
         <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1156,10 +1156,10 @@
         <v>1.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AB5" t="n">
         <v>1.51</v>
@@ -1204,16 +1204,16 @@
         <v>1.36</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>11.75</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
-        <v>5.95</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.33</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.3</v>
-      </c>
       <c r="X6" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH6" t="n">
         <v>1.29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.49</v>
-      </c>
       <c r="AI6" t="n">
-        <v>2.37</v>
+        <v>3.4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AL6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN6" t="n">
         <v>2.55</v>
       </c>
-      <c r="AM6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AO6" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.6</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
@@ -1573,10 +1573,10 @@
         <v>1.78</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AB8" t="n">
         <v>1.29</v>
@@ -1664,13 +1664,13 @@
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="K9" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.33</v>
+        <v>4.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.36</v>
@@ -1691,10 +1691,10 @@
         <v>3.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
@@ -1712,10 +1712,10 @@
         <v>2.05</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AB9" t="n">
         <v>1.63</v>
@@ -1736,10 +1736,10 @@
         <v>2.77</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ9" t="n">
         <v>1.48</v>
@@ -1803,13 +1803,13 @@
         <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.3</v>
@@ -1830,7 +1830,7 @@
         <v>4.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
         <v>2.2</v>
@@ -1851,10 +1851,10 @@
         <v>2.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>1.71</v>
@@ -1945,10 +1945,10 @@
         <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.35</v>
@@ -1969,10 +1969,10 @@
         <v>3.82</v>
       </c>
       <c r="S11" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
         <v>1.62</v>
@@ -1990,10 +1990,10 @@
         <v>1.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AB11" t="n">
         <v>1.26</v>
@@ -2081,10 +2081,10 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>4.2</v>
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,134 +2198,134 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.38</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.11</v>
+        <v>2.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.06</v>
       </c>
       <c r="P13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="R13" t="n">
-        <v>3.4</v>
+        <v>4.13</v>
       </c>
       <c r="S13" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="X13" t="n">
         <v>1.3</v>
       </c>
       <c r="Y13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH13" t="n">
         <v>1.3</v>
       </c>
-      <c r="Z13" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AI13" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="AM13" t="n">
         <v>1.73</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1.43</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,59 +2337,59 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.31</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>2.55</v>
       </c>
       <c r="T14" t="n">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
@@ -2398,73 +2398,73 @@
         <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>3.4</v>
+        <v>1.93</v>
       </c>
       <c r="X14" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="Z14" t="n">
         <v>1.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.84</v>
+        <v>2.65</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.93</v>
+        <v>2.65</v>
       </c>
       <c r="AJ14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM14" t="n">
         <v>1.6</v>
       </c>
-      <c r="AK14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1.69</v>
-      </c>
       <c r="AN14" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2476,134 +2476,134 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>SD Huesca</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J15" t="n">
         <v>2.1</v>
       </c>
-      <c r="I15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.65</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="M15" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="S15" t="n">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="W15" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.57</v>
+        <v>1.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.53</v>
+        <v>2.24</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.44</v>
+        <v>2.63</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.6</v>
+        <v>2.98</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.08</v>
+        <v>2.19</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.97</v>
+        <v>2.69</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.48</v>
+        <v>3.65</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2615,59 +2615,59 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.75</v>
+        <v>9.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>5.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="P16" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="R16" t="n">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
@@ -2676,73 +2676,73 @@
         <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.93</v>
+        <v>3.4</v>
       </c>
       <c r="X16" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="Z16" t="n">
         <v>1.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.65</v>
+        <v>4.84</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.65</v>
+        <v>2.93</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AK16" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AL16" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,134 +2754,134 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SD Huesca</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N17" t="n">
         <v>2.7</v>
       </c>
-      <c r="H17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.44</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="S17" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X17" t="n">
         <v>1.25</v>
       </c>
-      <c r="X17" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Y17" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.1</v>
+        <v>0.57</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.24</v>
+        <v>2.53</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.63</v>
+        <v>3.44</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.19</v>
+        <v>3.08</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.69</v>
+        <v>1.97</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,128 +2893,128 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L18" t="n">
         <v>2.25</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.74</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
         <v>1.06</v>
       </c>
       <c r="P18" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>4.13</v>
+        <v>3.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
         <v>2</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
         <v>1.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="AM18" t="n">
         <v>1.73</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AO18" t="n">
         <v>1.43</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="19">
@@ -3054,13 +3054,13 @@
         <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M19" t="n">
         <v>1.5</v>
@@ -3081,10 +3081,10 @@
         <v>2.63</v>
       </c>
       <c r="S19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
         <v>1.95</v>
@@ -3298,7 +3298,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,134 +3310,134 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="H21" t="n">
-        <v>2.25</v>
+        <v>2.97</v>
       </c>
       <c r="I21" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P21" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R21" t="n">
         <v>6.5</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.08</v>
-      </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.27</v>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="V21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL21" t="n">
         <v>1.67</v>
       </c>
-      <c r="W21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AM21" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,128 +3449,128 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.97</v>
+        <v>2.25</v>
       </c>
       <c r="I22" t="n">
-        <v>6.72</v>
+        <v>6.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="N22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI22" t="n">
         <v>4.25</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P22" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="AJ22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="23">
@@ -3610,13 +3610,13 @@
         <v>2.75</v>
       </c>
       <c r="J23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.4</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L23" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="M23" t="n">
         <v>1.36</v>
@@ -3637,10 +3637,10 @@
         <v>3.7</v>
       </c>
       <c r="S23" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="n">
         <v>1.7</v>
@@ -3749,13 +3749,13 @@
         <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="M24" t="n">
         <v>1.52</v>
@@ -3776,7 +3776,7 @@
         <v>2.6</v>
       </c>
       <c r="S24" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T24" t="n">
         <v>1.52</v>
@@ -3888,13 +3888,13 @@
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="K25" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="L25" t="n">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.57</v>
@@ -3909,16 +3909,16 @@
         <v>7.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="T25" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U25" t="n">
         <v>2.1</v>
@@ -4027,13 +4027,13 @@
         <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>4.45</v>
+        <v>5.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="M26" t="n">
         <v>1.33</v>
@@ -4054,10 +4054,10 @@
         <v>4.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="T26" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
         <v>1.8</v>
@@ -4166,13 +4166,13 @@
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.5</v>
@@ -4196,7 +4196,7 @@
         <v>2.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U27" t="n">
         <v>2.1</v>
